--- a/P0020/09_FICHAS/N3-FD-General.xlsx
+++ b/P0020/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0020\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0020/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FACD61-81A0-449E-9BAD-1408EF47E110}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$1</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="240">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,10 +98,10 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>Anexo 1: Plano geológico regional (INV-PL-GEO-ANXO1-001-01_ Plano Geológico Regional</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 1. PLANO GEOLOGICO REGIONAL</t>
+    <t>INV-PL-GEO-ANX01-001-01_Plano Geologico Regional</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 1. PLANO GEOLOGICO REGIONAL/INV-PL-GEO-ANX01-001-01_Plano Geologico Regional.pdf</t>
   </si>
   <si>
     <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-002</t>
@@ -99,289 +113,311 @@
     <t>Plano</t>
   </si>
   <si>
-    <t>.pdf</t>
+    <t>pdf</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Insumos del informe de Geología para ingeniería-INV-INF-GEO-002</t>
+  </si>
+  <si>
+    <t>Geología, puente, estatigrafía,carretera, materiales , Analisis Geotécnico ,Yati-La Bodega, Magangué, Isla Grande</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX02-001-01_Plano Geologico Local</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 2. PLANO GEOLOGICO LOCAL/INV-PL-GEO-ANX02-001-01_Plano Geologico Local.pdf</t>
+  </si>
+  <si>
+    <t>Planos de geología local realizados para el informe de Geología para ingeniería</t>
+  </si>
+  <si>
+    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-002</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX02-002-01_Plano Geologico Local</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 2. PLANO GEOLOGICO LOCAL/INV-PL-GEO-ANX02-002-01_Plano Geologico Local.pdf</t>
+  </si>
+  <si>
+    <t>Planos de geología local realizados para el informe de Geología para ingeniería contrato de consultoria No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-003</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX02-003-01_Plano Geologico Local.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 2. PLANO GEOLOGICO LOCAL/INV-PL-GEO-ANX02-003-01_Plano Geologico Local.pdf</t>
+  </si>
+  <si>
+    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-004</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX03-001-01_Plano Geomorfológico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 3. PLANO GEOMORFOLOGICO/INV-PL-GEO-ANX03-001-01_Plano Geomorfológico.pdf</t>
+  </si>
+  <si>
+    <t>Planos de geomorfológico que incluye ambientes denudativo, aluvial y antropogénico</t>
+  </si>
+  <si>
+    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-005</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO.ANX4a-001-01-Loc.Funtes Material</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 4a. PLANO LOCALIZACION FUENTES DE MATERIALES/INV-PL-GEO.ANX4a-001-01-Loc.Funtes Material.pdf</t>
+  </si>
+  <si>
+    <t>Plano de localización de fuente de materiales utilizado en el informe de Geologia para ingeniería contrato de consultoria No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-006</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX05-001-01Perfil-Estratigrafico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 5. PLANO PERFIL ESTRATIGRAFICO/INV-PL-GEO-ANX05-001-01Perfil-Estratigrafico.pdf</t>
+  </si>
+  <si>
+    <t>Plano perfil estratigráfico  puente Santa Lucía</t>
+  </si>
+  <si>
+    <t>Insumos utilizados en el perfil estatrigrafico del puente de Santa Lucia</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX06-002-01_LOC_MATERIALES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION DE SONDEOS FUENTES DE MATERIALES/INV-PL-GEO-ANX06-002-01_LOC_MATERIALES.pdf</t>
+  </si>
+  <si>
+    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-003</t>
+  </si>
+  <si>
+    <t>Plano localización de sondeos y fuentes de materiales  utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Insumos  de sondeos y fuentes de materiales  utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Sondeo, Fuentes de material</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO-ANX06-001-01_LOC_EXPLORACIONES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION EXPLORACIONES/INV-PL-GEO-ANX06-001-01_LOC_EXPLORACIONES.pdf</t>
+  </si>
+  <si>
+    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-004</t>
+  </si>
+  <si>
+    <t>Plano localización de exploraciones utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Insumos utilizados en las exploraciones del informe  informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Sondeo, Barreno, Apique, Pila</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE LABORATORIO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/RESULTADOS DE LABORATORIO</t>
+  </si>
+  <si>
+    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-005</t>
+  </si>
+  <si>
+    <t>Análisis de suelos empleado en la elaboracion del informe Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Variables: Masa retenida (g), %  Retenido, % Acumulado, % que Pasa, contenido de agua (humedad) del suelo, roca y mezclas de suelo-agregado,  límite líquido, límite plástico, índice de plasticidad, peso específico en rocas o núcleos puros, contenido de materia orgánico en arenas, índice de alargamiento y aplanamientos de agregados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sondeo, Barreno, Apique, Pila, Suelo, Granulometría </t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>INV-PL-GEO.ANX-08-001-01-Multitemporal</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 8. ANALISIS MULTITEMPORAL/INV-PL-GEO.ANX-08-001-01-Multitemporal.pdf</t>
+  </si>
+  <si>
+    <t>Mapa de socavación y evolución de orillas en el Brazo de Santa Lucía</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>Insumos del informe e Geología para ingeniería-INV-INF-GEO-005</t>
+  </si>
+  <si>
+    <t>Orillas, Socavación, Análisis multitemporal, Brazo Santa Lucía</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>REGISTRO DE PERFORACIONES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/PLANILLAS DE CAMPO/REGISTRO DE PERFORACIONES.xlsx</t>
+  </si>
+  <si>
+    <t>Volumen IV: Estudio de suelos para diseño de fundaciones-FA-INF-ESF-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de sondeos con ensayos de penetración estándar utilizado en el  estudio de suelos para diseño de fundaciones contrato: EJECUCIÓN DE INVESTIGACIONES GEOTÉCNICAS DE CAMPO (SONDEOS Y EXPLORACIONES) PARA LA REALIZACIÓN DE LOS ESTUDIOS Y DISEÑOS A NIVEL FASE III DE LA VÍA YATÍ- LABODEGA DEL K6+700 AL K9+000, DEL CONTRATO  DE CONSULTORÍA No. 083 de 2013. Registro de 52 sondeos, 241 m de perforaciones sobre el cauce ejecutado 				y 1079.4 m de perforaciones en tierra firme ejecutado.
+</t>
+  </si>
+  <si>
+    <t>GEOTECNIA</t>
+  </si>
+  <si>
     <t>DESCONOCIDO</t>
   </si>
   <si>
-    <t>Insumos del informe de Geología para ingeniería-INV-INF-GEO-002</t>
-  </si>
-  <si>
-    <t>Geología, Puente, Estatigrafía,Carretera, materiales , Analisis Geotécnico ,Yati-La Bodega, Magangué, Isla Grande,</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>Anexo 2: Plano geológico local ( INV-PL-GEO-ANX02-001-01_Plano Geológico Local)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 2. PLANO GEOLOGICO LOCAL</t>
-  </si>
-  <si>
-    <t>Planos de geología local realizados para el informe de Geología para ingeniería</t>
-  </si>
-  <si>
-    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-002</t>
-  </si>
-  <si>
-    <t>R0003</t>
-  </si>
-  <si>
-    <t>Anexo 2: Plano geológico local( INV-PL-GEO-ANX02-002-01_Plano Geologico Local)</t>
-  </si>
-  <si>
-    <t>Planos de geología local realizados para el informe de Geología para ingeniería contrato de consultoria No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-003</t>
-  </si>
-  <si>
-    <t>R0004</t>
-  </si>
-  <si>
-    <t>Anexo 2: Plano geológico local ( INV-PL-GEO-ANX02-003-01_Plano Geologico Local)</t>
-  </si>
-  <si>
-    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-004</t>
-  </si>
-  <si>
-    <t>R0005</t>
-  </si>
-  <si>
-    <t>Anexo 3: Plano Geomorfológico (INV-PL-GEO-ANX03-001-01_Plano Geomorfológico)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 3. PLANO GEOMORFOLOGICO</t>
-  </si>
-  <si>
-    <t>Planos de geomorfológico que incluye ambientes denudativo, aluvial y antropogénico</t>
-  </si>
-  <si>
-    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-005</t>
-  </si>
-  <si>
-    <t>R0006</t>
-  </si>
-  <si>
-    <t>Anexo 4a: Plano localización fuente de materiales</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 4a. PLANO LOCALIZACION FUENTES DE MATERIALES</t>
-  </si>
-  <si>
-    <t>Plano de localización de fuente de materiales utilizado en el informe de Geologia para ingeniería contrato de consultoria No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Insumos utilizado para el informe Geología para ingeniería-INV-INF-GEO-006</t>
-  </si>
-  <si>
-    <t>R0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 5: Plano perfil estratigráfico </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 5. PLANO PERFIL ESTRATIGRAFICO</t>
-  </si>
-  <si>
-    <t>Plano perfil estratigráfico  puente Santa Lucía</t>
-  </si>
-  <si>
-    <t>Insumos utilizados en el perfil estatrigrafico del puente de Santa Lucia</t>
-  </si>
-  <si>
-    <t>R0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 6: Ensayos de Campo y Laboratorio </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION DE SONDEOS FUENTES DE MATERIALES</t>
-  </si>
-  <si>
-    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-003</t>
-  </si>
-  <si>
-    <t>Plano localización de sondeos y fuentes de materiales  utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Insumos  de sondeos y fuentes de materiales  utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Sondeo, Fuentes de material</t>
-  </si>
-  <si>
-    <t>R0009</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION EXPLORACIONES</t>
-  </si>
-  <si>
-    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-004</t>
-  </si>
-  <si>
-    <t>Plano localización de exploraciones utilizado en el informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Insumos utilizados en las exploraciones del informe  informe de Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Sondeo, Barreno, Apique, Pila</t>
-  </si>
-  <si>
-    <t>R0010</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 6. ENSAYOS DE CAMPO Y LABORATORIO/RESULTADOS DE LABORATORIO</t>
-  </si>
-  <si>
-    <t>Volumen III: Informe de Geología para ingeniería-INV-INF-GEO-005</t>
-  </si>
-  <si>
-    <t>Análisis de suelos empleado en la elaboracion del informe Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t>Tablas, Gráficas</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>Insumos utilizados en el análisis de suelos empleado en la elaboracion del informe Geología para ingeniería contrato de consultoría No. 2146 de 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sondeo, Barreno, Apique, Pila, Suelo, Granulometría </t>
-  </si>
-  <si>
-    <t>R0011</t>
-  </si>
-  <si>
-    <t>Anexo 8: Análisis multitemporal</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 3 GEOLOGIA/ANEXOS/ANEXO 8. ANALISIS MULTITEMPORAL</t>
-  </si>
-  <si>
-    <t>Mapa de socavación y evolución de orillas en el Brazo de Santa Lucía</t>
-  </si>
-  <si>
-    <t>Mapa</t>
-  </si>
-  <si>
-    <t>Insumos del informe e Geología para ingeniería-INV-INF-GEO-005</t>
-  </si>
-  <si>
-    <t>Orillas, Socavación, Análisis multitemporal, Brazo Santa Lucía</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>R0012</t>
-  </si>
-  <si>
-    <t>Anexo 1:Resultados ensayos de campo y laboratorio ( Registro de perforaciones)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/PLANILLAS DE CAMPO</t>
-  </si>
-  <si>
-    <t>Volumen IV: Estudio de suelos para diseño de fundaciones-FA-INF-ESF-003</t>
-  </si>
-  <si>
-    <t>Registro de sondeos con ensayos de penetración estándar utilizado en el  estudio de suelos para diseño de fundaciones contrato de consultoría No. 083-2013</t>
-  </si>
-  <si>
-    <t>Tablas</t>
-  </si>
-  <si>
-    <t>Pdf, xlsx</t>
+    <t>Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-003 del contrato de consultoría No. 083-2013. No es relevante para la toma de decisiones</t>
+  </si>
+  <si>
+    <t>Sondeo, perforaciones, puente, geomorfología, estatrigrafía, geotecnia, geología, vía Yati La Bodega</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>FA-PL-ESF-ANX01-001-01</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION DE PERFORACIONES/PDF/FA-PL-ESF-ANX01-001-01.pdf</t>
+  </si>
+  <si>
+    <t>Plano de localización de las 52 perforaciones en el marco del  contrato EJECUCIÓN DE INVESTIGACIONES GEOTÉCNICAS DE CAMPO (SONDEOS Y EXPLORACIONES) PARA LA REALIZACIÓN DE LOS ESTUDIOS Y DISEÑOS A NIVEL FASE III DE LA VÍA YATÍ- LABODEGA DEL K6+700 AL K9+000, DEL CONTRATO  DE CONSULTORÍA No. 083 de 2013. Registro de 52 sondeos, 241 m de perforaciones sobre el cauce ejecutadoo y 1079.4 m de perforaciones en tierra firme ejecutado.</t>
+  </si>
+  <si>
+    <t>Sondeo, perforaciones, puente,geomorfología, estatrigrafía, geotecnica, vía Yati La Bodega</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>RESUMEN DE LABORATORIO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/RESULTADOS ENSAYOS DE LABORATORIO/RESUMEN DE LABORATORIO.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de laboratorio de las 52 perforaciones en el marco del  contrato EJECUCIÓN DE INVESTIGACIONES GEOTÉCNICAS DE CAMPO (SONDEOS Y EXPLORACIONES) PARA LA REALIZACIÓN DE LOS ESTUDIOS Y DISEÑOS A NIVEL FASE III DE LA VÍA YATÍ- LABODEGA DEL K6+700 AL K9+000, DEL CONTRATO  DE CONSULTORÍA No. 083 de 2013. Registro de 52 sondeos, contiene el resultado de límite líquido, límite plástico, índice de plasticidad, rganulometría, clasificación de suelos. </t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>ANEXO 3.6 - CAPACIDAD DE CARGA VERTICAL</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 3-CALCULO CAPACIDAD DE CARGA VERTICAL/ANEXO 3.6 - CAPACIDAD DE CARGA VERTICAL.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013 , corresponden  a cálculos de capacidad de carga vertical para las pilas de 1.5 y 2 m de diámetro.</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Insumos de calculo de la capacidad de carga vertical del estudio los para diseño de fundaciones-FA-INF-ESF-003 del contrato de consultoría No. 083-2013</t>
+  </si>
+  <si>
+    <t>Capacidad de carga vertical, aproches, pilas, ángulo de fricción, roncador, vía Yati  La Bodega</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>ANEXO 4-CALCULO DE CAPACIDAD DE CARGA EN PILA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 4-CALCULO CAPACIDAD DE CARGA LATERAL/ANEXO 4-CALCULO DE CAPACIDAD DE CARGA EN PILA.docx</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponden  a cálculos de capacidad de carga lateral y asentamiento por pilote.</t>
+  </si>
+  <si>
+    <t>docx</t>
   </si>
   <si>
     <t>Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-003 del contrato de consultoría No. 083-2013</t>
   </si>
   <si>
-    <t>Sondeo, Perforaciones, Puente,Geomorfología, Estatrigrafía</t>
-  </si>
-  <si>
-    <t>R0013</t>
-  </si>
-  <si>
-    <t>Anexo 1:Resultados ensayos de campo y  laboratorio (Plano localización de perforaciones)</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/PLANO LOCALIZACION DE PERFORACIONES/PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plano de localización de perforaciones </t>
-  </si>
-  <si>
-    <t>R0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1:Resultados ensayos de campo y  laboratorio </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 1-RESULTADOS ENSAYOS DE CAMPO Y LABORATORIO/RESULTADOS ENSAYOS DE LABORATORIO</t>
-  </si>
-  <si>
-    <t>Análisis de suelos en la elaboración del estudio de suelos para diseño de fundaciones contrato de consultoria No. 083-2013</t>
-  </si>
-  <si>
-    <t>R0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 3: Cálculo capacidad de carga vertical </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 3-CALCULO CAPACIDAD DE CARGA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013 , corresponden  a cálculos de capacidad de carga vertical </t>
-  </si>
-  <si>
-    <t>.pdf, Docx</t>
-  </si>
-  <si>
-    <t>Capacidad de carga vertical, Aproches, Pilas, Angulo de fricción, Roncador</t>
-  </si>
-  <si>
-    <t>R0016</t>
-  </si>
-  <si>
-    <t>Anexo 4: Cálculo capacidad de carga lateral</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 4-CALCULO CAPACIDAD DE CARGA LATERAL</t>
-  </si>
-  <si>
-    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponden  a cálculos de capacidad de carga lateral</t>
-  </si>
-  <si>
-    <t>Capacidad de carga lateral, Pilotes, carga de Caisson, Asentamiento</t>
+    <t>Capacidad de carga lateral, pilotes, carga de caisson, asentamiento, via Yati La Bodega, Puente Roncador</t>
   </si>
   <si>
     <t>R0017</t>
   </si>
   <si>
-    <t>Anexo 7: Planta perfil puente Roncador</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR</t>
-  </si>
-  <si>
-    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponden  a los planos utilizados en la elaboración de la planta de perfil del puente Roncador</t>
+    <t>1 FA-PL-ESF-ANX07-001-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponden  a los planos la planta de perfil del puente Roncador via Yati La Bodega. </t>
   </si>
   <si>
     <t>Planos</t>
   </si>
   <si>
-    <t>Puente, Perfil, Roncador, Pilas, Sondeo</t>
+    <t xml:space="preserve">Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-003 del contrato de consultoría No. 083-2013. No es relevante para la toma de decisiones, pero si es importante para la revision del diseño longitudinal del puente. </t>
+  </si>
+  <si>
+    <t>Puente Roncador, pilas, sondeo, clasificación de suelos, perfil longitudinal, trazado</t>
   </si>
   <si>
     <t>R0018</t>
@@ -390,19 +426,19 @@
     <t>ANX 2-GEOLOGÍA LOCAL</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/EDITABLE</t>
-  </si>
-  <si>
-    <t>Editables en formato .dwg de los anexos 2 referente a la geología local</t>
-  </si>
-  <si>
-    <t>.dwg</t>
-  </si>
-  <si>
-    <t>Son los archivos editables de la geologia local usada en el informe</t>
-  </si>
-  <si>
-    <t>Puente Roncado, geología, area local</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/EDITABLE/ANX 2-GEOLOGÍA LOCAL.dwg</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013. Editables en formato .dwg de los anexos 2 referente a la geología local</t>
+  </si>
+  <si>
+    <t>dwg</t>
+  </si>
+  <si>
+    <t>Son los archivos editables de la geologia local usada en el informe del diseño vía Yati La Bodega</t>
+  </si>
+  <si>
+    <t>Puente Roncador, geología, area local</t>
   </si>
   <si>
     <t>R0019</t>
@@ -411,13 +447,16 @@
     <t>ANX 2-PERFIL ESTRATIGRAFICO PUENTE RONCADOR</t>
   </si>
   <si>
-    <t>Editables en formato .dwg de los anexos 2 referente al perfil estratigráfico Puente Roncador</t>
-  </si>
-  <si>
-    <t>Son los archivos editables del perfil  estatigráfico del puente rocandor</t>
-  </si>
-  <si>
-    <t>Puene Roncador, perfil, estratigrafía, areas</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/EDITABLE/ANX 2-PERFIL ESTRATIGRAFICO PUENTE RONCADOR.dwg</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013. Editables en formato .dwg de los anexos 2 referente al perfil estratigráfico Puente Roncador</t>
+  </si>
+  <si>
+    <t>Son los archivos editables del perfil  estatigráfico del puente Rondador, vía Yati La Bodega</t>
+  </si>
+  <si>
+    <t>Puene Roncador, perfil, estratigrafía, areas, clasificación de suelos</t>
   </si>
   <si>
     <t>R0020</t>
@@ -426,10 +465,13 @@
     <t>ANX 2-PLANO TOPOGRAFICO</t>
   </si>
   <si>
-    <t>Editables en formato .dwg de los anexos 2 referente al plano topográfico</t>
-  </si>
-  <si>
-    <t>Son los archivos editables del plano topográfico</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/EDITABLE/ANX 2-PLANO TOPOGRAFICO.dwg</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013. Editables en formato .dwg de los anexos 2 referente al plano topográfico</t>
+  </si>
+  <si>
+    <t>Son los archivos editables del plano topográfico, vía Yati La Bodega</t>
   </si>
   <si>
     <t xml:space="preserve">Planos, topografía, Puente, </t>
@@ -441,109 +483,91 @@
     <t>R0021</t>
   </si>
   <si>
-    <t>Anexo 1: Ensayo de campo y laboratorio</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 1. ENSAYOS DE CAMPO Y LABORATORIO/RESULTADOS DE LABORATORIO</t>
+    <t>INV-PL-ESF-ANX02-001-01.Plano Geologico Local</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-001-01.Plano Geologico Local.pdf</t>
   </si>
   <si>
     <t>Volumen IV: Estudio de suelos para diseño de fundacioneINV-INF-ESF-004.1</t>
   </si>
   <si>
-    <t>Análisis de suelos en la elaboración del Estudio de suelos para diseño de fundaciones contrato de consultoría No. 2146-2011</t>
-  </si>
-  <si>
-    <t>Xlsx</t>
+    <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de geología local del trazado de la vía Yati La Bodega. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planos resultado del estudio del diseño de fundaciones-FA-INF-ESF-004.1del contrato de consultoría No. 2146-2011. NO contiene información de variables para el modelo de toama de decisiones. Corresponden a los planos finales del diseño con las características en mención. </t>
+  </si>
+  <si>
+    <t>Planos, puente Roncadero, puente Santa Lucía, vía Yati La Bodega, estudio de suelos para fundación, diseño de puentes, geología, geotecnia</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>FA-PL-ESF-ANX02-001-01</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/PDF/FA-PL-ESF-ANX02-001-01.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponde  a el plano topográfico del diseño del puente el Roncador</t>
+  </si>
+  <si>
+    <t>Pdf</t>
+  </si>
+  <si>
+    <t>Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-004.1del contrato de consultoría No. 2146-2011. No contiene variables para el modelo de toma de decisiones</t>
+  </si>
+  <si>
+    <t>Topografía, puente Roncador, geología local, geotecnia, trazado puente, via Yati La Bodega, estratigrafía</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-002-01.Plano Geologico Local</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-002-01.Plano Geologico Local.pdf</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-003-01.Plano Geologico Local</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-003-01.Plano Geologico Local.pdf</t>
+  </si>
+  <si>
+    <t>Volumen IV: Estudio de suelos para diseño de fundaciones de puentes y otras contenciones INV-INF-ESF-004.1</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-004-01.Plano Geologico Regional</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-004-01.Plano Geologico Regional.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de geología regional del trazado de la vía Yati La Bodega. </t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>ANEXO 7. PLANTA Y PERFIL PUENTE SANTA LUCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la planta de perfil del puente Santa Lucía. Se muestran las produndidades de los pilotes, el perfil estratigráfico, seciones transversales, cotas del puente. </t>
   </si>
   <si>
     <t>Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-004.1del contrato de consultoría No. 2146-2011</t>
   </si>
   <si>
-    <t>Apiques, Barrenos; Indice de Colapso, Muestars de Orilla</t>
-  </si>
-  <si>
-    <t>R0022</t>
-  </si>
-  <si>
-    <t>Anexo 2: Planos geológicos y topográficos.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF</t>
-  </si>
-  <si>
-    <t>Presenta los planos topográficos, geológicos locales y geológicos regionales tomados como inumos para el diseño del puente el Roncador</t>
-  </si>
-  <si>
-    <t>Pdf</t>
-  </si>
-  <si>
-    <t>Topografía, Puente Roncador, Grología local, Geología Regional</t>
-  </si>
-  <si>
-    <t>R0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parametros de resistencia </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 3. CALCULO DE PARAMETROS DE RESISTENCIA/ANEXO 3.1 - PARAMETROS DE RESISTENCIA</t>
-  </si>
-  <si>
-    <t>Se presentan los parámetros de resistencia del suelo adyacentes a las 6 pilas del puente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parámetros de resistencia, Suelos, </t>
-  </si>
-  <si>
-    <t>R0024</t>
-  </si>
-  <si>
-    <t>Cálculo ángulo de fricción.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 3. CALCULO DE PARAMETROS DE RESISTENCIA/ANEXO 3.2 - CALCULO ANGULO FRICCIÓN PILAS SANTALUCIA v5</t>
-  </si>
-  <si>
-    <t>Ensayo SPT</t>
-  </si>
-  <si>
-    <t>Se presenta la información obtenida en campo del ensayo spt junto con el cálculo de ángulo de fricción.</t>
-  </si>
-  <si>
-    <t>Tabla</t>
-  </si>
-  <si>
-    <t>Parámetros de resistencia, Suelos, SPT, Ángulo de fricción</t>
-  </si>
-  <si>
-    <t>R0025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 4: Capacidad de carga y asentamiento Por Pilote </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 4. CAPACIDAD DE CARGA Y ASENTAMIENTO POR PILOTE</t>
-  </si>
-  <si>
-    <t>Anexo del informe INV-INF-ESF-004.1, corresponden a cálculos de capacidad de carga y sentamiento por pilotes Santa Lucía</t>
-  </si>
-  <si>
-    <t>Tablas, Graficas</t>
-  </si>
-  <si>
-    <t>Pilote, Pilas, Capacidad de Carga, Asentamiento, Aproches, Santa Lucía</t>
-  </si>
-  <si>
-    <t>R0026</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 7. PLANTA PERFIL PUENTE SANTA Lucía</t>
-  </si>
-  <si>
-    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos utilizados en la elaboración de la planta de perfil del puente Santa Lucía</t>
-  </si>
-  <si>
-    <t>Puente, Perfil, Santa Lucía, Pilas, Sondeo</t>
+    <t>Puente Santa Lucía, plano planta perfil, pilas, sondeo</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -552,43 +576,190 @@
     <t>R0027</t>
   </si>
   <si>
-    <t>Anexo 3: HEC-RAS Modelo opcion 1 con puente Roncador</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 083/ANEXOS/ANEXO 3. HEC-RAS MODELO OPCION 1 CON PUENTE RONCADOR</t>
+    <t>f-16a-socavación local_maxima</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 083/ANEXOS/ANEXO 3. HEC-RAS MODELO OPCION 1 CON PUENTE RONCADOR/f-16a-socavación local_maxima.jpg</t>
   </si>
   <si>
     <t>Volumen VII: Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de cconsultoria No. 083-2013</t>
   </si>
   <si>
-    <t>Anexo del Informe Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de consultoría No. 083-2013 corresponden a imágenes de socavación local, puente, distribución velocidades</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Jpg</t>
-  </si>
-  <si>
-    <t>Inusmos del Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de cconsultoria No. 083-2013</t>
-  </si>
-  <si>
-    <t>Socavación, Puente, Roncador, Modelo HEC-RAS</t>
+    <t>Anexo del Informe Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de consultoría No. 083-2013 corresponden a imágenes de socavación local en el puente Roncador de la simulación con HEC-RAS</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>HIDRÁULICA</t>
+  </si>
+  <si>
+    <t>Insumos del estudio de hidrología, hidráulica y socavación FA-INF-HDR-002 contrato de consultoria No. 083-2013</t>
+  </si>
+  <si>
+    <t>Socavación, puente Roncador, modelo HEC-RAS</t>
   </si>
   <si>
     <t>R0028</t>
   </si>
   <si>
-    <t xml:space="preserve">Anexo 6: Resultados estudios de suelos </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 083/ANEXOS/ANEXO 6. RESULTADO ESTUDIOS DE SUELOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo del Informe Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de consultoría No. 083-2013 corresponden a resultados de estudios de suelos </t>
-  </si>
-  <si>
-    <t>Sondeo, Perforaciones, Puente</t>
+    <t>nivel de cimentación</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 7 HIDROLOGIA CTO 083/ANEXOS/ANEXO 10. NIVEL DE CIMENTACIÓN/nivel de cimentación.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del Informe Estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de consultoría No. 083-2013 corresponde a la table resumen de las cotas de cimentación, longitud y socavación de las pilas del puente Roncador Vía Yati La Bodega. </t>
+  </si>
+  <si>
+    <t>datos</t>
+  </si>
+  <si>
+    <t>Insumos del estudio de hidrología, hidráulica y socavaión FA-INF-HDR-002 contrato de consultoria No. 083-2013</t>
+  </si>
+  <si>
+    <t>Puente Roncador, cimentación, pilas, longitud de pila, socavación, hidráulica, vía Yati La Bodega</t>
+  </si>
+  <si>
+    <t>R0029</t>
+  </si>
+  <si>
+    <t>1 FA-PL-ESF-ANX07-002-01</t>
+  </si>
+  <si>
+    <t>R0030</t>
+  </si>
+  <si>
+    <t>1 FA-PL-ESF-ANX07-003-01</t>
+  </si>
+  <si>
+    <t>R0031</t>
+  </si>
+  <si>
+    <t>1 FA-PL-ESF-ANX07-004-01</t>
+  </si>
+  <si>
+    <t>R0032</t>
+  </si>
+  <si>
+    <t>FA-PL-ESF-ANX02-002-01</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 2- PLANOS GEOLÓGICOS Y TOPOGRÁFICOS/PDF/FA-PL-ESF-ANX02-002-01.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponde  a el plano de perfil estratigráfico local del diseño del puente el Roncador</t>
+  </si>
+  <si>
+    <t>R0033</t>
+  </si>
+  <si>
+    <t>FA-PL-ESF-ANX02-003-01</t>
+  </si>
+  <si>
+    <t>Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponde  a el plano de geología local del diseño del puente el Roncador</t>
+  </si>
+  <si>
+    <t>R0034</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-005-01.Plano Geomorfologico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-005-01.Plano Geomorfologico.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de geomorfología del trazado de la vía Yati La Bodega. </t>
+  </si>
+  <si>
+    <t>R0035</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-006-01.Perfil Estratigrafico Pte.Santa Lucia</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-006-01.Perfil Estratigrafico Pte.Santa Lucia.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos del perfil estratigráfico del puente Santa Lucía en el trazado de la vía Yati La Bodega. </t>
+  </si>
+  <si>
+    <t>R0036</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-007-01.Topografía</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-007-01.Topografía.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K0+000 a  K2+460</t>
+  </si>
+  <si>
+    <t>Planos, puente Roncadero, puente Santa Lucía, vía Yati La Bodega, estudio de suelos para fundación, diseño de puentes, geología, geotecnia, topografía</t>
+  </si>
+  <si>
+    <t>R0037</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-008-01.Topografía</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-008-01.Topografía.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K2+180 a  K2+820</t>
+  </si>
+  <si>
+    <t>R0038</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-009-01.Topografía</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-009-01.Topografía.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K4+760 a  K7+140</t>
+  </si>
+  <si>
+    <t>R0039</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-010-01.Topografía</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-010-01.Topografía.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K7+780 a  K9+480</t>
+  </si>
+  <si>
+    <t>R0040</t>
+  </si>
+  <si>
+    <t>INV-PL-ESF-ANX02-011-01.Topografía</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 2. PLANOS GEOLOGICOS Y TOPOGRAFICOS/PDF/INV-PL-ESF-ANX02-011-01.Topografía.pdf</t>
+  </si>
+  <si>
+    <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K9+420 a  K11+810</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/1 FA-PL-ESF-ANX07-001-01.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 7. PLANTA PERFIL PUENTE SANTA LUCIA/ANEXO 7. PLANTA Y PERFIL PUENTE SANTA LUCIA.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/2 FA-PL-ESF-ANX07-002-01.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/3 FA-PL-ESF-ANX07-003-01.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/4 FA-PL-ESF-ANX07-004-01.pdf</t>
   </si>
 </sst>
 </file>
@@ -604,15 +775,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -635,13 +812,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,13 +1158,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="91.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -981,13 +1223,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1021,30 +1263,30 @@
         <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>2011</v>
@@ -1053,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -1071,30 +1313,30 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>2011</v>
@@ -1121,30 +1363,30 @@
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>2011</v>
@@ -1153,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -1171,30 +1413,30 @@
         <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>2011</v>
@@ -1203,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
@@ -1221,30 +1463,30 @@
         <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>2011</v>
@@ -1253,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
@@ -1271,30 +1513,30 @@
         <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1">
         <v>2011</v>
@@ -1303,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>
@@ -1321,39 +1563,39 @@
         <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1">
         <v>2011</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
@@ -1371,39 +1613,39 @@
         <v>25</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>2011</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>23</v>
@@ -1421,92 +1663,92 @@
         <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1">
         <v>2011</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
@@ -1521,13 +1763,13 @@
         <v>25</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1535,34 +1777,34 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" s="1">
         <v>2011</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
@@ -1571,13 +1813,13 @@
         <v>25</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1585,25 +1827,25 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F14" s="1">
         <v>2011</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>23</v>
@@ -1612,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>25</v>
@@ -1621,13 +1863,13 @@
         <v>25</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1635,49 +1877,49 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1">
         <v>2011</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1685,34 +1927,34 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1">
         <v>2011</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
@@ -1721,13 +1963,13 @@
         <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1735,34 +1977,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
@@ -1771,13 +2013,13 @@
         <v>25</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1785,34 +2027,34 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="F18" s="1">
         <v>2011</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>25</v>
@@ -1821,13 +2063,13 @@
         <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1835,34 +2077,34 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F19" s="1">
         <v>2011</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>25</v>
@@ -1871,13 +2113,13 @@
         <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1885,34 +2127,34 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F20" s="1">
         <v>2011</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
@@ -1921,13 +2163,13 @@
         <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1935,34 +2177,34 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1">
         <v>2011</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>25</v>
@@ -1971,13 +2213,13 @@
         <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1985,34 +2227,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F22" s="1">
         <v>2011</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>25</v>
@@ -2021,13 +2263,13 @@
         <v>25</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2035,34 +2277,34 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F23" s="1">
         <v>2011</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>25</v>
@@ -2071,13 +2313,13 @@
         <v>25</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2085,49 +2327,49 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2135,34 +2377,34 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
       </c>
       <c r="F25" s="1">
         <v>2011</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>25</v>
@@ -2171,13 +2413,13 @@
         <v>25</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2185,34 +2427,34 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F26" s="1">
         <v>2011</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>25</v>
@@ -2221,13 +2463,13 @@
         <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2235,34 +2477,34 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>236</v>
       </c>
       <c r="F27" s="1">
         <v>2011</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>25</v>
@@ -2271,13 +2513,13 @@
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2285,34 +2527,34 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
       </c>
       <c r="F28" s="1">
         <v>2011</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>25</v>
@@ -2321,13 +2563,13 @@
         <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2335,35 +2577,35 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2371,16 +2613,621 @@
         <v>25</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" t="s">
+        <v>151</v>
+      </c>
+      <c r="P39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" t="s">
+        <v>151</v>
+      </c>
+      <c r="P40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P41" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R41">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0020/09_FICHAS/N3-FD-General.xlsx
+++ b/P0020/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0020/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1FACD61-81A0-449E-9BAD-1408EF47E110}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACFF513-28DB-4FCD-853F-24D0DD9ECB18}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="238">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -321,12 +321,6 @@
 </t>
   </si>
   <si>
-    <t>GEOTECNIA</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
     <t>Insumos del estudio los para diseño de fundaciones-FA-INF-ESF-003 del contrato de consultoría No. 083-2013. No es relevante para la toma de decisiones</t>
   </si>
   <si>
@@ -408,6 +402,9 @@
     <t>1 FA-PL-ESF-ANX07-001-01</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/1 FA-PL-ESF-ANX07-001-01.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anexo del informe -FA-INF-ESF-003 del contrato de consultoría No. 083-2013, corresponden  a los planos la planta de perfil del puente Roncador via Yati La Bodega. </t>
   </si>
   <si>
@@ -561,6 +558,9 @@
     <t>ANEXO 7. PLANTA Y PERFIL PUENTE SANTA LUCIA</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 7. PLANTA PERFIL PUENTE SANTA LUCIA/ANEXO 7. PLANTA Y PERFIL PUENTE SANTA LUCIA.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la planta de perfil del puente Santa Lucía. Se muestran las produndidades de los pilotes, el perfil estratigráfico, seciones transversales, cotas del puente. </t>
   </si>
   <si>
@@ -591,9 +591,6 @@
     <t>jpg</t>
   </si>
   <si>
-    <t>HIDRÁULICA</t>
-  </si>
-  <si>
     <t>Insumos del estudio de hidrología, hidráulica y socavación FA-INF-HDR-002 contrato de consultoria No. 083-2013</t>
   </si>
   <si>
@@ -627,18 +624,27 @@
     <t>1 FA-PL-ESF-ANX07-002-01</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/2 FA-PL-ESF-ANX07-002-01.pdf</t>
+  </si>
+  <si>
     <t>R0030</t>
   </si>
   <si>
     <t>1 FA-PL-ESF-ANX07-003-01</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/3 FA-PL-ESF-ANX07-003-01.pdf</t>
+  </si>
+  <si>
     <t>R0031</t>
   </si>
   <si>
     <t>1 FA-PL-ESF-ANX07-004-01</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/4 FA-PL-ESF-ANX07-004-01.pdf</t>
+  </si>
+  <si>
     <t>R0032</t>
   </si>
   <si>
@@ -672,6 +678,9 @@
     <t xml:space="preserve">Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de geomorfología del trazado de la vía Yati La Bodega. </t>
   </si>
   <si>
+    <t xml:space="preserve">Planos resultado del estudio del diseño de fundaciones-FA-INF-ESF-004.1del contrato de consultoría No. 2146-2011. NO contiene información de variables para el modelo de toma de decisiones. Corresponden a los planos finales del diseño con las características en mención. </t>
+  </si>
+  <si>
     <t>R0035</t>
   </si>
   <si>
@@ -745,28 +754,13 @@
   </si>
   <si>
     <t>Anexo del informe   INV-INF-ESF-004.1 del contrato de consultoría No. 2146-2011, corresponden  a los planos de la topografía del trazado de la vía Yati La Bodega, K9+420 a  K11+810</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/1 FA-PL-ESF-ANX07-001-01.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 ESTUDIO DE SUELOS FUNDACIONES/ANEXOS/ANEXO 7. PLANTA PERFIL PUENTE SANTA LUCIA/ANEXO 7. PLANTA Y PERFIL PUENTE SANTA LUCIA.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/2 FA-PL-ESF-ANX07-002-01.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/3 FA-PL-ESF-ANX07-003-01.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0020/02_PRODUCTOS/VOL. 4 EST SUELOS CTO 083/ANEXOS/ANEXO 7- PLANTA PERFIL PUENTE RONCADOR/PDF/4 FA-PL-ESF-ANX07-004-01.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -841,19 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -870,13 +851,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,11 +1140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
@@ -1172,7 +1152,7 @@
     <col min="5" max="5" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,14 +1202,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1272,14 +1252,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1322,14 +1302,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1372,14 +1352,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1422,14 +1402,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1472,14 +1452,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1522,14 +1502,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1572,14 +1552,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1622,14 +1602,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1672,14 +1652,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1722,14 +1702,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1772,7 +1752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1804,25 +1784,25 @@
         <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1830,13 +1810,13 @@
         <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F14" s="1">
         <v>2011</v>
@@ -1845,7 +1825,7 @@
         <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>23</v>
@@ -1854,25 +1834,25 @@
         <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1880,13 +1860,13 @@
         <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F15" s="1">
         <v>2011</v>
@@ -1895,7 +1875,7 @@
         <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>76</v>
@@ -1904,25 +1884,25 @@
         <v>77</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,13 +1910,13 @@
         <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="1">
         <v>2011</v>
@@ -1945,16 +1925,16 @@
         <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
@@ -1963,16 +1943,16 @@
         <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1980,13 +1960,13 @@
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F17" s="1">
         <v>2011</v>
@@ -1995,34 +1975,34 @@
         <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2030,13 +2010,13 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="F18" s="1">
         <v>2011</v>
@@ -2045,16 +2025,16 @@
         <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>25</v>
@@ -2063,16 +2043,16 @@
         <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2080,13 +2060,13 @@
         <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F19" s="1">
         <v>2011</v>
@@ -2095,34 +2075,34 @@
         <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2130,13 +2110,13 @@
         <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F20" s="1">
         <v>2011</v>
@@ -2145,34 +2125,34 @@
         <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2180,13 +2160,13 @@
         <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F21" s="1">
         <v>2011</v>
@@ -2195,66 +2175,66 @@
         <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>25</v>
@@ -2263,98 +2243,98 @@
         <v>25</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>25</v>
@@ -2363,48 +2343,48 @@
         <v>25</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>25</v>
@@ -2413,48 +2393,48 @@
         <v>25</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>25</v>
@@ -2463,36 +2443,36 @@
         <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" t="s">
-        <v>236</v>
-      </c>
       <c r="F27" s="1">
         <v>2011</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>173</v>
@@ -2504,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>25</v>
@@ -2513,7 +2493,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>174</v>
@@ -2522,7 +2502,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2548,31 +2528,31 @@
         <v>181</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2580,13 +2560,13 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
       </c>
       <c r="F29" s="1">
         <v>2011</v>
@@ -2595,16 +2575,16 @@
         <v>180</v>
       </c>
       <c r="H29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>25</v>
@@ -2613,16 +2593,16 @@
         <v>25</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -2630,13 +2610,13 @@
         <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" t="s">
         <v>194</v>
-      </c>
-      <c r="E30" t="s">
-        <v>237</v>
       </c>
       <c r="F30" s="2">
         <v>2011</v>
@@ -2645,16 +2625,16 @@
         <v>91</v>
       </c>
       <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>93</v>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>25</v>
@@ -2663,16 +2643,16 @@
         <v>25</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +2666,7 @@
         <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="F31" s="4">
         <v>2011</v>
@@ -2695,16 +2675,16 @@
         <v>91</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>93</v>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>25</v>
@@ -2712,17 +2692,17 @@
       <c r="M31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>94</v>
+      <c r="N31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2730,13 +2710,13 @@
         <v>176</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F32" s="4">
         <v>2011</v>
@@ -2745,16 +2725,16 @@
         <v>91</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>93</v>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>25</v>
@@ -2762,17 +2742,17 @@
       <c r="M32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>94</v>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2780,31 +2760,31 @@
         <v>176</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F33" s="4">
         <v>2011</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>93</v>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>25</v>
@@ -2812,17 +2792,17 @@
       <c r="M33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>94</v>
+      <c r="N33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -2830,31 +2810,31 @@
         <v>176</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="F34" s="4">
         <v>2011</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>93</v>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>25</v>
@@ -2862,17 +2842,17 @@
       <c r="M34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>94</v>
+      <c r="N34" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
@@ -2880,31 +2860,31 @@
         <v>176</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F35" s="4">
         <v>2011</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>93</v>
+      <c r="K35" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>25</v>
@@ -2912,17 +2892,17 @@
       <c r="M35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>94</v>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
@@ -2930,31 +2910,31 @@
         <v>176</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F36" s="4">
         <v>2011</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>93</v>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>25</v>
@@ -2962,17 +2942,17 @@
       <c r="M36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>94</v>
+      <c r="N36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
@@ -2980,31 +2960,31 @@
         <v>176</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F37" s="4">
         <v>2011</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>93</v>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>25</v>
@@ -3012,17 +2992,17 @@
       <c r="M37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="5" t="s">
-        <v>94</v>
+      <c r="N37" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
@@ -3030,31 +3010,31 @@
         <v>176</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F38" s="4">
         <v>2011</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>93</v>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>25</v>
@@ -3062,17 +3042,17 @@
       <c r="M38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>94</v>
+      <c r="N38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -3080,31 +3060,31 @@
         <v>176</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F39" s="4">
         <v>2011</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>93</v>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>25</v>
@@ -3112,17 +3092,17 @@
       <c r="M39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N39" t="s">
-        <v>94</v>
+      <c r="N39" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -3130,31 +3110,31 @@
         <v>176</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F40" s="4">
         <v>2011</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>93</v>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>25</v>
@@ -3162,17 +3142,17 @@
       <c r="M40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N40" t="s">
-        <v>94</v>
+      <c r="N40" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3180,31 +3160,31 @@
         <v>176</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F41" s="4">
         <v>2011</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>93</v>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>25</v>
@@ -3212,14 +3192,14 @@
       <c r="M41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N41" t="s">
-        <v>94</v>
+      <c r="N41" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O41" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/P0020/09_FICHAS/N3-FD-General.xlsx
+++ b/P0020/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0020/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACFF513-28DB-4FCD-853F-24D0DD9ECB18}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4E6180-7A69-4305-A80B-1B2C91F282C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,13 +851,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,14 +1143,14 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2603,13 +2605,13 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2653,13 +2655,13 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2703,13 +2705,13 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2753,13 +2755,13 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>201</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2803,13 +2805,13 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2853,13 +2855,13 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>208</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2903,13 +2905,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2953,13 +2955,13 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -3003,13 +3005,13 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -3053,13 +3055,13 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -3103,13 +3105,13 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -3153,13 +3155,13 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="7" t="s">
         <v>234</v>
       </c>
       <c r="D41" s="4" t="s">

--- a/P0020/09_FICHAS/N3-FD-General.xlsx
+++ b/P0020/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0020/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4E6180-7A69-4305-A80B-1B2C91F282C4}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{6F7F9A8D-8CF1-4042-AD71-A9A3D4206CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE24569C-839E-4FB5-B9E6-DF1D9111800D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,7 +760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,15 +851,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,10 +1141,10 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
@@ -1154,7 +1152,7 @@
     <col min="5" max="5" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1702,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2152,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2252,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2504,7 +2502,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2604,14 +2602,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2654,14 +2652,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2704,14 +2702,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2754,14 +2752,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2804,14 +2802,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2854,14 +2852,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2904,14 +2902,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2954,14 +2952,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -3004,14 +3002,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -3054,14 +3052,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -3104,14 +3102,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -3154,14 +3152,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -3205,11 +3203,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R41">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>